--- a/src/Cotizaciones/REC2003_20456789123.xlsx
+++ b/src/Cotizaciones/REC2003_20456789123.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\mundo-patitas\src\Cotizaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DEA7FA-9B71-4826-9401-99E6333F5051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8099E9ED-DF8E-4C44-8556-0A9C2B9B1DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4944" yWindow="1344" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3708" yWindow="1740" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COTIZACION" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>Datos del Cliente</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>Cotización de Productos</t>
+  </si>
+  <si>
+    <t>Cotizacion N°</t>
   </si>
 </sst>
 </file>
@@ -259,7 +262,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
@@ -293,6 +296,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -690,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -703,10 +707,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="16">
+        <v>102</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -902,13 +912,13 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
     </row>
     <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C30" s="11"/>

--- a/src/Cotizaciones/REC2003_20456789123.xlsx
+++ b/src/Cotizaciones/REC2003_20456789123.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\mundo-patitas\src\Cotizaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8099E9ED-DF8E-4C44-8556-0A9C2B9B1DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DDE72DB-9437-455D-9AB0-8B9916A8C863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3708" yWindow="1740" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5100" yWindow="3132" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COTIZACION" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>Datos del Cliente</t>
   </si>
@@ -139,6 +139,18 @@
   </si>
   <si>
     <t>Cotizacion N°</t>
+  </si>
+  <si>
+    <t>Cepillo Dental Para Perro Medium</t>
+  </si>
+  <si>
+    <t>Dentastix para perros pequeños 3pzas</t>
+  </si>
+  <si>
+    <t>Hueso Dental Chiquito</t>
+  </si>
+  <si>
+    <t>Shampoo antipulgas 500ml</t>
   </si>
 </sst>
 </file>
@@ -215,7 +227,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -254,6 +266,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -262,7 +283,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
@@ -298,11 +319,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -310,13 +340,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FFD9D9D9"/>
-        </left>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -332,7 +355,7 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color rgb="FFD9D9D9"/>
         </left>
@@ -345,6 +368,8 @@
         <bottom style="thin">
           <color rgb="FFD9D9D9"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -365,7 +390,7 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color rgb="FFD9D9D9"/>
         </left>
@@ -378,6 +403,15 @@
         <bottom style="thin">
           <color rgb="FFD9D9D9"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FFD9D9D9"/>
+        </left>
       </border>
     </dxf>
   </dxfs>
@@ -394,12 +428,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Detalle" displayName="Detalle" ref="A16:E19">
-  <autoFilter ref="A16:E19" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Detalle" displayName="Detalle" ref="A16:E23">
+  <autoFilter ref="A16:E23" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id_Producto" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Descripcion" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="CantidadOfertada" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id_Producto" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Descripcion" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="CantidadOfertada" dataDxfId="2"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="PrecioUnitario"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="SubtotalLinea"/>
   </tableColumns>
@@ -692,10 +726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -707,10 +741,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="18"/>
+      <c r="B1" s="19"/>
       <c r="C1" s="1" t="s">
         <v>35</v>
       </c>
@@ -832,10 +866,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
-        <v>1032</v>
+        <v>1019</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C17" s="4">
         <v>40</v>
@@ -850,10 +884,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C18" s="4">
         <v>50</v>
@@ -868,10 +902,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
-        <v>1040</v>
+        <v>1020</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C19" s="4">
         <v>80</v>
@@ -884,54 +918,131 @@
         <v>400</v>
       </c>
     </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="12">
+        <v>1033</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="21">
+        <v>50</v>
+      </c>
+      <c r="D20">
+        <v>9</v>
+      </c>
+      <c r="E20" s="5">
+        <f t="shared" ref="E20:E23" si="0">IFERROR(C20*D20,"")</f>
+        <v>450</v>
+      </c>
+    </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D21" s="2" t="s">
+      <c r="A21" s="12">
+        <v>1032</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="21">
+        <v>40</v>
+      </c>
+      <c r="D21" s="17">
+        <v>12</v>
+      </c>
+      <c r="E21" s="5">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="12">
+        <v>1033</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="21">
+        <v>60</v>
+      </c>
+      <c r="D22" s="17">
+        <v>5</v>
+      </c>
+      <c r="E22" s="5">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="12">
+        <v>1040</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="21">
+        <v>30</v>
+      </c>
+      <c r="D23" s="17">
+        <v>8</v>
+      </c>
+      <c r="E23" s="5">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="22"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="24"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D25" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="6">
-        <f>SUM(E17:E19)</f>
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D22" s="2" t="s">
+      <c r="E25" s="6">
+        <f>SUM(E17:E23)</f>
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D26" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="6">
-        <f>ROUND(E21*0.18,2)</f>
-        <v>199.8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D23" s="2" t="s">
+      <c r="E26" s="6">
+        <f>ROUND(E25*0.18,2)</f>
+        <v>464.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D27" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="7">
-        <f>E21+E22</f>
-        <v>1309.8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="19" t="s">
+      <c r="E27" s="7">
+        <f>E25+E26</f>
+        <v>3044.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-    </row>
-    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C30" s="11"/>
-      <c r="D30" s="10"/>
-    </row>
-    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C31" s="11"/>
-      <c r="D31" s="10"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+    </row>
+    <row r="34" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C34" s="11"/>
+      <c r="D34" s="10"/>
+    </row>
+    <row r="35" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C35" s="11"/>
+      <c r="D35" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A29:E29"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">

--- a/src/Cotizaciones/REC2003_20456789123.xlsx
+++ b/src/Cotizaciones/REC2003_20456789123.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\mundo-patitas\src\Cotizaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DDE72DB-9437-455D-9AB0-8B9916A8C863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0ACD459-2B80-4763-AD00-4DEEBCDB828E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="3132" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1344" yWindow="1104" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COTIZACION" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Datos del Cliente</t>
   </si>
@@ -60,15 +60,9 @@
     <t>FechaEmision</t>
   </si>
   <si>
-    <t>2025-11-01</t>
-  </si>
-  <si>
     <t>Razón Social:</t>
   </si>
   <si>
-    <t>FechaRecepcion (opcional)</t>
-  </si>
-  <si>
     <t>Moneda</t>
   </si>
   <si>
@@ -151,6 +145,9 @@
   </si>
   <si>
     <t>Shampoo antipulgas 500ml</t>
+  </si>
+  <si>
+    <t>FechaEntrega</t>
   </si>
 </sst>
 </file>
@@ -283,7 +280,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
@@ -320,19 +317,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -340,6 +341,13 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FFD9D9D9"/>
+        </left>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -407,13 +415,6 @@
         <horizontal/>
       </border>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FFD9D9D9"/>
-        </left>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -431,9 +432,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Detalle" displayName="Detalle" ref="A16:E23">
   <autoFilter ref="A16:E23" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id_Producto" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Descripcion" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="CantidadOfertada" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id_Producto" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Descripcion" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="CantidadOfertada" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="PrecioUnitario"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="SubtotalLinea"/>
   </tableColumns>
@@ -729,7 +730,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -741,12 +742,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A1" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="19"/>
+      <c r="A1" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="25"/>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D1" s="16">
         <v>102</v>
@@ -762,7 +763,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -796,7 +797,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B10" s="14">
         <v>20456789123</v>
@@ -804,19 +805,22 @@
       <c r="D10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E10" t="s">
-        <v>9</v>
+      <c r="E10" s="23">
+        <v>45970</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="23">
+        <v>45980</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -824,44 +828,44 @@
         <v>3</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
         <v>14</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -869,7 +873,7 @@
         <v>1019</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C17" s="4">
         <v>40</v>
@@ -887,7 +891,7 @@
         <v>1028</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C18" s="4">
         <v>50</v>
@@ -905,7 +909,7 @@
         <v>1020</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C19" s="4">
         <v>80</v>
@@ -923,9 +927,9 @@
         <v>1033</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="21">
+        <v>37</v>
+      </c>
+      <c r="C20" s="18">
         <v>50</v>
       </c>
       <c r="D20">
@@ -941,9 +945,9 @@
         <v>1032</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="21">
+        <v>24</v>
+      </c>
+      <c r="C21" s="18">
         <v>40</v>
       </c>
       <c r="D21" s="17">
@@ -959,9 +963,9 @@
         <v>1033</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="21">
+        <v>25</v>
+      </c>
+      <c r="C22" s="18">
         <v>60</v>
       </c>
       <c r="D22" s="17">
@@ -977,9 +981,9 @@
         <v>1040</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="21">
+        <v>26</v>
+      </c>
+      <c r="C23" s="18">
         <v>30</v>
       </c>
       <c r="D23" s="17">
@@ -991,13 +995,13 @@
       </c>
     </row>
     <row r="24" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="22"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="24"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="21"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D25" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E25" s="6">
         <f>SUM(E17:E23)</f>
@@ -1006,7 +1010,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D26" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E26" s="6">
         <f>ROUND(E25*0.18,2)</f>
@@ -1015,7 +1019,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D27" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E27" s="7">
         <f>E25+E26</f>
@@ -1023,13 +1027,13 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
+      <c r="A29" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
     </row>
     <row r="34" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C34" s="11"/>
